--- a/Sample-Sheets/Client  User A Client-ID 901 .xlsx
+++ b/Sample-Sheets/Client  User A Client-ID 901 .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahes\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahes\Downloads\HOLD MANAGER SAMPLE EXCELS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A056882-FF82-4E33-8426-051D2341A97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC09A35-963F-4B02-94AB-76E625C26BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
-  <si>
-    <t>MUDRA OM SECURITIES (PVT) LTD.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Statement of Holding 01-07-2025</t>
   </si>
@@ -634,6 +631,10 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -649,10 +650,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,7 +934,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,153 +957,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-    </row>
-    <row r="5" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="K6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="M6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="N6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="O6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="18" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="7" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="13" t="s">
         <v>153</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1136,24 +1131,24 @@
         <v>445.45</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="8" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="13" t="s">
         <v>151</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="C8" s="8">
         <v>400</v>
@@ -1183,24 +1178,24 @@
         <v>98680</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="O8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="9" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="13" t="s">
         <v>149</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="C9" s="11">
         <v>300</v>
@@ -1230,24 +1225,24 @@
         <v>83040</v>
       </c>
       <c r="L9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="O9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="10" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="13" t="s">
         <v>147</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="C10" s="8">
         <v>500</v>
@@ -1277,24 +1272,24 @@
         <v>194625</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="O10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="11" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="13" t="s">
         <v>145</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="C11" s="11">
         <v>50</v>
@@ -1324,24 +1319,24 @@
         <v>22470</v>
       </c>
       <c r="L11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="N11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="O11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="10" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="12" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="13" t="s">
         <v>143</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="C12" s="8">
         <v>6000</v>
@@ -1371,24 +1366,24 @@
         <v>483000</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="N12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="O12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="13" t="s">
         <v>141</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="C13" s="11">
         <v>100</v>
@@ -1412,30 +1407,30 @@
         <v>100</v>
       </c>
       <c r="J13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="M13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="O13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="10" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="14" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="13" t="s">
         <v>139</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="C14" s="8">
         <v>5150</v>
@@ -1465,24 +1460,24 @@
         <v>197914.5</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="O14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="15" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="13" t="s">
         <v>137</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="C15" s="11">
         <v>100</v>
@@ -1512,24 +1507,24 @@
         <v>57030</v>
       </c>
       <c r="L15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="10" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="16" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="13" t="s">
         <v>135</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="C16" s="8">
         <v>100</v>
@@ -1559,24 +1554,24 @@
         <v>41005</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="O16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="17" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="13" t="s">
         <v>133</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="C17" s="11">
         <v>100</v>
@@ -1600,30 +1595,30 @@
         <v>100</v>
       </c>
       <c r="J17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="L17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="M17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="O17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O17" s="10" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="18" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="13" t="s">
         <v>131</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="C18" s="8">
         <v>100</v>
@@ -1647,30 +1642,30 @@
         <v>100</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="N18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="O18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="19" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="13" t="s">
         <v>129</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="C19" s="11">
         <v>100</v>
@@ -1694,30 +1689,30 @@
         <v>100</v>
       </c>
       <c r="J19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="M19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="N19" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="O19" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="O19" s="10" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="20" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="13" t="s">
         <v>127</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="C20" s="8">
         <v>100</v>
@@ -1747,24 +1742,24 @@
         <v>146865</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="N20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="O20" s="7" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="21" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="13" t="s">
         <v>125</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="C21" s="11">
         <v>5000</v>
@@ -1794,24 +1789,24 @@
         <v>90000</v>
       </c>
       <c r="L21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="O21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O21" s="10" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="22" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="13" t="s">
         <v>123</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="C22" s="8">
         <v>2000</v>
@@ -1835,30 +1830,30 @@
         <v>2000</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="O22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="23" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="13" t="s">
         <v>121</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="C23" s="11">
         <v>7000</v>
@@ -1882,30 +1877,30 @@
         <v>7000</v>
       </c>
       <c r="J23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="L23" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="M23" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="N23" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="O23" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O23" s="10" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="24" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="13" t="s">
         <v>119</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="C24" s="8">
         <v>37</v>
@@ -1929,30 +1924,30 @@
         <v>37</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="N24" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="O24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="25" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="13" t="s">
         <v>117</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="C25" s="11">
         <v>100</v>
@@ -1976,30 +1971,30 @@
         <v>100</v>
       </c>
       <c r="J25" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="L25" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="M25" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="N25" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="O25" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="O25" s="10" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="26" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="13" t="s">
         <v>115</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="C26" s="8">
         <v>100</v>
@@ -2029,16 +2024,16 @@
         <v>21840</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="N26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="O26" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
